--- a/Excel Project/Daibetic Patient Survey.xlsx
+++ b/Excel Project/Daibetic Patient Survey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT DEMO\Excel Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66CDED-BCFC-434B-8D2D-573F7D94A373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FCD122-94DB-4563-B277-92CDA866C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId12"/>
-    <pivotCache cacheId="5" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -826,7 +826,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[daibetic.xlsx]Sheet1!PivotTable3</c:name>
+    <c:name>[Daibetic Patient Survey.xlsx]Sheet1!PivotTable3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1382,7 +1382,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[daibetic.xlsx]Sheet3!PivotTable5</c:name>
+    <c:name>[Daibetic Patient Survey.xlsx]Sheet3!PivotTable5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -5691,7 +5691,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[daibetic.xlsx]Sheet4!PivotTable6</c:name>
+    <c:name>[Daibetic Patient Survey.xlsx]Sheet4!PivotTable6</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -6310,7 +6310,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[daibetic.xlsx]Sheet8!PivotTable3</c:name>
+    <c:name>[Daibetic Patient Survey.xlsx]Sheet8!PivotTable3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -6965,7 +6965,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[daibetic.xlsx]Sheet9!PivotTable4</c:name>
+    <c:name>[Daibetic Patient Survey.xlsx]Sheet9!PivotTable4</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -9270,467 +9270,8 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>Obesity</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" b="0" cap="none" spc="0" baseline="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="6E747A">
-                      <a:alpha val="43000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>  Ratio</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-IN" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-IN" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet10!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet10!$A$11:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adult</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Senior</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>teenager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet10!$B$11:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4232</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4605</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>193</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C8D7-4CAE-B9B4-784147346132}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet10!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet10!$A$11:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Adult</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Senior</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>teenager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet10!$C$11:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6825</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8778</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C8D7-4CAE-B9B4-784147346132}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:overlap val="100"/>
-        <c:axId val="1510777135"/>
-        <c:axId val="1510786703"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1510777135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1510786703"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1510786703"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1510777135"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="92D050"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[daibetic.xlsx]Sheet11!PivotTable13</c:name>
+    <c:name>[Daibetic Patient Survey.xlsx]Sheet11!PivotTable13</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -10532,7 +10073,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="92D050"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -10777,46 +10318,6 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13405,511 +12906,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14466,18 +13462,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>309995</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>128153</xdr:rowOff>
+      <xdr:colOff>292676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>467591</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Gender">
@@ -14500,7 +13496,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14510,7 +13506,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14857268" y="2137062"/>
+              <a:off x="14839949" y="1998517"/>
               <a:ext cx="1976005" cy="1049484"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -14685,42 +13681,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>188334</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0DF622-6588-49C2-BFB4-496D390962DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
@@ -14734,8 +13694,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Age Group">
@@ -14758,7 +13718,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14801,16 +13761,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>548986</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14829,7 +13789,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14848,8 +13808,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>17319</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Polyuria">
@@ -14872,7 +13832,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14926,8 +13886,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Polydipsia">
@@ -14950,7 +13910,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15004,8 +13964,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="sudden weight loss">
@@ -15028,7 +13988,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15082,8 +14042,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="weakness">
@@ -15106,7 +14066,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15160,8 +14120,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>121228</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Polyphagia">
@@ -15184,7 +14144,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15238,8 +14198,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="Itching">
@@ -15262,7 +14222,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15316,8 +14276,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="Obesity">
@@ -15340,7 +14300,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -36513,7 +35473,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E99EDFA-A791-4F4B-9AF7-41724DBC9BE1}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E99EDFA-A791-4F4B-9AF7-41724DBC9BE1}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0">
@@ -36712,7 +35672,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1F2FD85-642A-4085-8A83-B2880933839C}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1F2FD85-642A-4085-8A83-B2880933839C}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:O6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -37013,7 +35973,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC4CDA15-4D74-46D6-9EA5-E232CC8EA49F}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC4CDA15-4D74-46D6-9EA5-E232CC8EA49F}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField dataField="1" showAll="0">
@@ -37196,7 +36156,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4696C5BE-7121-40CE-AD64-EC5850F057BE}" name="PivotTable10" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4696C5BE-7121-40CE-AD64-EC5850F057BE}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -37335,7 +36295,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81FC7E4D-8D86-4C39-ACA6-7BC2B0494107}" name="PivotTable13" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81FC7E4D-8D86-4C39-ACA6-7BC2B0494107}" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A12:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -37503,7 +36463,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D2DB7F6-6179-498C-B46F-40EAAF2E4A8E}" name="PivotTable22" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D2DB7F6-6179-498C-B46F-40EAAF2E4A8E}" name="PivotTable22" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -38198,7 +37158,7 @@
   <dimension ref="E2:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
